--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1641110.624723139</v>
+        <v>-1645250.331137095</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13830606.36251177</v>
+        <v>13827656.46555967</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>282.0093696905534</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>53.55824086025618</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -786,10 +786,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>26.96566453630813</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>2.236264487172693</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>88.67557088578819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>88.5676825675457</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>296.8577974789508</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.693096301502631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226399</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615104</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>68.73032489577405</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>105.9996670424335</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.205238724643059</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>155.3586761838734</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>34.17164676482371</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.28107614361008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>20.46691814139299</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>114.0927119716334</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>185.1253655291361</v>
+        <v>17.41151179422188</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>31.97405019618532</v>
       </c>
       <c r="E14" t="n">
-        <v>85.11349888052646</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1667,13 +1667,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>155.9988161228539</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>36.94507967094704</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2567,13 +2567,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.9624712641433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404343</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
@@ -2618,7 +2618,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419572</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142884</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007175</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035416</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219388</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507299</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484026</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872324</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380444</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497637</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943229</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X28" t="n">
         <v>137.7482445205302</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1177.579749396263</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.579749396263</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="D2" t="n">
-        <v>792.1386206129307</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>389.5550957294753</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>376.7010612998571</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="N2" t="n">
-        <v>1989.9374095968</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.9374095968</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1916.177267772143</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U2" t="n">
-        <v>1916.177267772143</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="V2" t="n">
-        <v>1574.070458475662</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="W2" t="n">
-        <v>1574.070458475662</v>
+        <v>1276.156231571198</v>
       </c>
       <c r="X2" t="n">
-        <v>1574.070458475662</v>
+        <v>1276.156231571198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1177.579749396263</v>
+        <v>1276.156231571198</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653869</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.27622687548</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1599.174178227692</v>
+        <v>384.8405648147488</v>
       </c>
       <c r="C4" t="n">
-        <v>1428.969060293681</v>
+        <v>384.8405648147488</v>
       </c>
       <c r="D4" t="n">
-        <v>1273.335947196196</v>
+        <v>229.2074517172636</v>
       </c>
       <c r="E4" t="n">
-        <v>1273.335947196196</v>
+        <v>229.2074517172636</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196196</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196196</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196196</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196196</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196196</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306138</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179938</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518202</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549411</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591119</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367698</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>1971.966885920298</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>1971.966885920298</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>1971.966885920298</v>
+        <v>853.3789855748726</v>
       </c>
       <c r="V4" t="n">
-        <v>1971.966885920298</v>
+        <v>853.3789855748726</v>
       </c>
       <c r="W4" t="n">
-        <v>1688.636483851476</v>
+        <v>570.0485835060501</v>
       </c>
       <c r="X4" t="n">
-        <v>1599.174178227692</v>
+        <v>570.0485835060501</v>
       </c>
       <c r="Y4" t="n">
-        <v>1599.174178227692</v>
+        <v>570.0485835060501</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1738.556545601274</v>
+        <v>678.2966927093153</v>
       </c>
       <c r="C5" t="n">
-        <v>1738.556545601274</v>
+        <v>678.2966927093153</v>
       </c>
       <c r="D5" t="n">
-        <v>1738.556545601274</v>
+        <v>678.2966927093153</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>678.2966927093153</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477964</v>
+        <v>665.4426582796971</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>74.88432743274666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>74.88432743274666</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>74.88432743274666</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465278</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023271</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023271</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023271</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023271</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.790056023271</v>
+        <v>678.2966927093153</v>
       </c>
       <c r="X5" t="n">
-        <v>1747.337450956327</v>
+        <v>678.2966927093153</v>
       </c>
       <c r="Y5" t="n">
-        <v>1738.556545601274</v>
+        <v>678.2966927093153</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021438</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C6" t="n">
-        <v>505.159187462236</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837163</v>
+        <v>275.4495881628891</v>
       </c>
       <c r="E6" t="n">
-        <v>238.623729194604</v>
+        <v>139.0030972737768</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777358</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591877</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591877</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675978</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431051</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.5002186841284</v>
+        <v>367.3414777878345</v>
       </c>
       <c r="C7" t="n">
-        <v>438.5002186841284</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="D7" t="n">
-        <v>438.5002186841284</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E7" t="n">
-        <v>369.0756480823364</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>661.6122798674851</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X7" t="n">
-        <v>661.6122798674851</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.5002186841284</v>
+        <v>552.5494964791358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.907436154955</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.731934657886</v>
+        <v>1182.85393926</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>797.412810476668</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>797.412810476668</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,46 +4808,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>2199.134950018231</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X8" t="n">
-        <v>2199.134950018231</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y8" t="n">
-        <v>2199.134950018231</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>729.0351590378315</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>558.8300411038207</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>558.8300411038207</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="G10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>558.8796580964973</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>558.8796580964973</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>324.7993358794804</v>
+        <v>914.2431777291328</v>
       </c>
       <c r="Y10" t="n">
-        <v>262.8992589667429</v>
+        <v>914.2431777291328</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1450.148693143101</v>
+        <v>1413.689529456423</v>
       </c>
       <c r="C11" t="n">
-        <v>1128.769466792226</v>
+        <v>1413.689529456423</v>
       </c>
       <c r="D11" t="n">
-        <v>815.1246131550881</v>
+        <v>1100.044675819285</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>769.2574260820232</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>424.1592627581949</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>82.79278239239127</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2990.711221598065</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2990.711221598065</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2720.400687447777</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W11" t="n">
-        <v>2421.197927562259</v>
+        <v>2384.73876387558</v>
       </c>
       <c r="X11" t="n">
-        <v>2103.54159764151</v>
+        <v>2067.082433954831</v>
       </c>
       <c r="Y11" t="n">
-        <v>1778.847163708305</v>
+        <v>1742.388000021626</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.744905612751</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.52287682331</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O12" t="n">
-        <v>2295.043159414291</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420615</v>
+        <v>593.7970597253333</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542446</v>
+        <v>495.3882169375163</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029532</v>
+        <v>411.551378986225</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>327.7888419916213</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1332.809865128935</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.68534223645</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>955.5022722034679</v>
+        <v>924.9842784840482</v>
       </c>
       <c r="W13" t="n">
-        <v>768.5069534871687</v>
+        <v>907.396892833319</v>
       </c>
       <c r="X13" t="n">
-        <v>768.5069534871687</v>
+        <v>745.112845762496</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5069534871687</v>
+        <v>593.7970597253333</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1788.408699622868</v>
+        <v>1751.874884930728</v>
       </c>
       <c r="C14" t="n">
-        <v>1467.029473271993</v>
+        <v>1430.495658579853</v>
       </c>
       <c r="D14" t="n">
-        <v>1153.384619634855</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
         <v>1067.411388442404</v>
@@ -5306,7 +5306,7 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
         <v>2675.578323579424</v>
@@ -5315,13 +5315,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="Y14" t="n">
-        <v>1788.408699622868</v>
+        <v>2080.573355495932</v>
       </c>
     </row>
     <row r="15">
@@ -5367,13 +5367,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>403.8135591038543</v>
+        <v>655.0952099420613</v>
       </c>
       <c r="C16" t="n">
-        <v>305.4047163160374</v>
+        <v>556.6863671542444</v>
       </c>
       <c r="D16" t="n">
-        <v>305.4047163160374</v>
+        <v>472.849529202953</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160374</v>
+        <v>389.0869922083494</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752042</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208437</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5443,16 +5443,16 @@
         <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593279</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907707</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>1123.13058916745</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="V16" t="n">
-        <v>928.9475191344685</v>
+        <v>1119.42504888904</v>
       </c>
       <c r="W16" t="n">
-        <v>717.41339221184</v>
+        <v>1082.106786595154</v>
       </c>
       <c r="X16" t="n">
-        <v>555.1293451410171</v>
+        <v>919.8227395243314</v>
       </c>
       <c r="Y16" t="n">
-        <v>403.8135591038543</v>
+        <v>768.5069534871686</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1521.202330875214</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>270.9691711012521</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>435.0968109750519</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>621.3883893133159</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>804.578023344525</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803436</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924275</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,28 +5908,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5972,34 +5972,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,16 +6157,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
@@ -6218,43 +6218,43 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379501</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672777</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278174</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754499</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368296</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985356</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796857</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026484</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,7 +6488,7 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>218.9633184712348</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>702.529404369548</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1330.301053996229</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1986.079025206788</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6619,13 +6619,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6634,7 +6634,7 @@
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311919</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1382.319247076791</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.320147121372</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873283</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765611</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3006.843833557899</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3303.341514273831</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>587.8131797881765</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1215.584829414858</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1871.362800625417</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2387.883083216398</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465404</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>906.3032701055258</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1180.660157722217</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450177</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924224</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1521.202330875214</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.722613466195</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7105,16 +7105,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7330,22 +7330,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7391,19 +7391,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,10 +7433,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7561,25 +7561,25 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960409</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
         <v>974.9038003296507</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,37 +7819,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>556.1230176353719</v>
       </c>
       <c r="N2" t="n">
-        <v>564.5028797591312</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>416.7338824638925</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>460.0844827139989</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>151.3981012518494</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>212.7983422525436</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269434</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>178.0263139717792</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>457.1386964627902</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>663.2434089132782</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384017</v>
       </c>
       <c r="P12" t="n">
-        <v>173.3576105420024</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9015,7 +9015,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>314.1682372053023</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>320.902235706038</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>236.6660863673582</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>290.5921503773106</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>433.2773539239171</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>229.2969893930493</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>36.09457204981216</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>24.29342012426605</v>
+        <v>192.0072738591803</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>278.5343549045816</v>
       </c>
       <c r="E14" t="n">
-        <v>242.3658783593624</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>55.50727532293219</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>172.4737059824551</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1208474.447622124</v>
+        <v>1206970.578587723</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1208474.447622124</v>
+        <v>1206970.578587723</v>
       </c>
     </row>
     <row r="4">
@@ -26323,19 +26323,19 @@
         <v>95615.41405464026</v>
       </c>
       <c r="F2" t="n">
-        <v>95615.41405464026</v>
+        <v>95615.41405464025</v>
       </c>
       <c r="G2" t="n">
         <v>108199.3068560141</v>
       </c>
       <c r="H2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="I2" t="n">
         <v>108199.3068560141</v>
       </c>
       <c r="J2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="K2" t="n">
         <v>108199.3068560141</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539677</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="F4" t="n">
         <v>138605.9604845214</v>
       </c>
       <c r="G4" t="n">
+        <v>186364.8769761035</v>
+      </c>
+      <c r="H4" t="n">
         <v>186364.8769761036</v>
       </c>
-      <c r="H4" t="n">
-        <v>186364.8769761035</v>
-      </c>
       <c r="I4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
-        <v>187115.3694404867</v>
+        <v>187115.3694404868</v>
       </c>
       <c r="K4" t="n">
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="N4" t="n">
         <v>186364.8769761035</v>
@@ -26457,7 +26457,7 @@
         <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,16 +26488,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391952</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551967</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-362244.5536248068</v>
+        <v>-357592.3340036318</v>
       </c>
       <c r="C6" t="n">
-        <v>-180039.6053329508</v>
+        <v>-183733.6769695767</v>
       </c>
       <c r="D6" t="n">
-        <v>-187784.1860365713</v>
+        <v>-195520.4752599629</v>
       </c>
       <c r="E6" t="n">
-        <v>-208299.1276037662</v>
+        <v>-208508.8591504557</v>
       </c>
       <c r="F6" t="n">
-        <v>-96176.56612972163</v>
+        <v>-96386.29767641128</v>
       </c>
       <c r="G6" t="n">
-        <v>-183760.6649722911</v>
+        <v>-183760.664972291</v>
       </c>
       <c r="H6" t="n">
         <v>-136335.3394356091</v>
@@ -26543,16 +26543,16 @@
         <v>-136335.3394356091</v>
       </c>
       <c r="J6" t="n">
-        <v>-349377.2570328948</v>
+        <v>-342860.9718783216</v>
       </c>
       <c r="K6" t="n">
         <v>-142575.1078383921</v>
       </c>
       <c r="L6" t="n">
-        <v>-197757.6967730134</v>
+        <v>-201806.5339834855</v>
       </c>
       <c r="M6" t="n">
-        <v>-178536.1688952321</v>
+        <v>-179587.8639064203</v>
       </c>
       <c r="N6" t="n">
         <v>-136335.3394356091</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443785</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014442</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014442</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924596</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287435</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>114.4804285637295</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>167.7073555559213</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>148.2483091467725</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>185.1777423863158</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>193.9088329547299</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>143.171836427301</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27622,19 +27622,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>112.1733304779261</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.8327056871022</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343553</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270316</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>85.27289912361546</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>114.8812735290895</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394.2845595296399</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>233.8850702982253</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>197.567872230023</v>
       </c>
       <c r="Y10" t="n">
-        <v>159.599864427913</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28743,20 +28743,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>28.01250026485211</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901363</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431664</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>48.65992738833268</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140893187</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031232</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254166</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,25 +30402,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30639,22 +30639,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.7104901066881</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,22 +34699,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344372</v>
+        <v>406.3979660376446</v>
       </c>
       <c r="N2" t="n">
-        <v>415.3843884213472</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>326.6735356069743</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>373.0011178946843</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>33.71826330950326</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>63.67985091475948</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776315</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>90.94294915246452</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>303.8905267322986</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>570.8562868639664</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="P12" t="n">
-        <v>86.27424572268772</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
         <v>236.863807216752</v>
@@ -35817,13 +35817,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>221.4806783164134</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>110.6741579516621</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>233.8188708867233</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36300,7 +36300,7 @@
         <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700728</v>
+        <v>280.7039614853757</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698323</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215744</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N28" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122748</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.448038484469</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039237</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>147.0691510340248</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>581.8026381332438</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155196</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>200.5318035203924</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791183</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476688</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>197.8808906882705</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269414</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>346.1939891046024</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.63600263452903</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
